--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_142.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_142.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1421370967741936</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G/3', 'C', 'G']]</t>
-        </is>
+          <t>isophonics_225</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.106312292358804</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['E:7', 'A:min', 'A:min/b7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[['A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(39.724104, 43.706326)]</t>
+          <t>[('0:00:40.049000', '0:00:48.539000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>[('0:00:14.160000', '0:00:28.960000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1021978021978022</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:min/A#', 'C:min', 'G:min/A#']]</t>
-        </is>
+          <t>isophonics_273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.101010101010101</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:min/5', 'C:min', 'F:min/5', 'C:min']]</t>
+          <t>[['C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(84.54, 98.02)]</t>
+          <t>[['D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(19.238, 26.622)]</t>
+          <t>[('0:00:20.801000', '0:00:27.165000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:06.536000', '0:00:09.774000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_49</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0158851939427479</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Ab:7', 'Db', 'Db'], ['Eb:7', 'Ab:7', 'Ab:7'], ['Eb:min7', 'Ab:7', 'Db:7'], ['Eb:min7', 'Ab:7', 'Db:maj6']]</t>
-        </is>
+          <t>isophonics_276</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1503759398496241</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb'], ['C:7', 'F:7', 'F:7'], ['C:min7', 'F:7', 'Bb:7'], ['C:min7', 'F:7', 'Bb:maj6']]</t>
+          <t>[['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(38.31, 41.1), (29.26, 32.06), (53.25, 54.92), (35.45, 37.19)]</t>
+          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(44.74, 47.14), (17.21, 19.67), (2.6, 3.8), (5.79, 7.0)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:09.738333', '0:00:15.380782')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:00.780000', '0:00:19.180000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1644144144144144</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'D', 'A', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2015810276679842</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb', 'Eb', 'Bb', 'Ab']]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(1.302038, 9.410453)]</t>
+          <t>[['E', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(60.761383, 73.288548)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:40.960000', '0:00:43.300000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:32.233898', '0:00:36.959159')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_258</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>[['E:min', 'A:min', 'E:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.7, 21.42)]</t>
+          <t>[['A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.22, 21.94)]</t>
+          <t>[('0:00:00.506000', '0:00:08.175000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:14.520000', '0:00:22.520000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1113122171945701</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(16.82, 23.18)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(82.290863, 90.185647)]</t>
+          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:07.160000', '0:00:19.200000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(72.08, 79.58)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(70.34, 77.22)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:01:27.440000', '0:01:50.440000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1310924369747899</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'B'], ['A', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb', 'Bb/3'], ['Ab', 'Bb', 'Eb']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(23.861, 34.866), (12.971, 19.435)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(25.942, 29.102), (7.043, 10.286)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_36</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09782608695652173</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4545454545454545</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'G']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(17.9, 20.08)]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(54.89, 61.21)]</t>
+          <t>[('0:00:15.300000', '0:00:19.720000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:01:10.519024', '0:01:19.249727')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>0.3506493506493507</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>[(21.78, 25.3)]</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(64.3, 65.72)]</t>
+          <t>[('0:00:19.140000', '0:00:22.240000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:01:00.120000', '0:01:01.360000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E']]</t>
-        </is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(54.76, 62.82)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(38.438956, 41.94517)]</t>
+          <t>[('0:00:45.460000', '0:00:58.080000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.240000', '0:00:07.820000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3375</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G', 'D:7', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'A:7']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(3.024965, 17.839297)]</t>
+          <t>[['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(26.126167, 33.440453)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1098901098901099</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#'], ['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_101</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['C:min', 'G:7/C', 'G:(3,5,b7,b9)/C', 'C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(23.08, 30.92), (43.88, 48.02)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(23.42, 31.44), (13.12, 19.96)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:13.640000', '0:00:43.660000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:13.020000', '0:00:45.300000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_58</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_75</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.03616220735785954</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:min7', 'Bb:7', 'Eb:maj6']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb:maj6']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(1.01, 2.26)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(20.84, 24.66)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:05.780000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:10.200000', '0:00:29.800000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.421195652173913</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(18.66, 21.84)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(238.72, 254.26)]</t>
+          <t>[('0:00:01.600000', '0:00:41.420000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:00.580000', '0:00:38.340000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_57</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_99</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07697368421052631</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G', 'E:min', 'C']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E', 'C#:min', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(52.304693, 57.401473)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(23.574625, 26.08238)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
